--- a/adversarial_attack_results.xlsx
+++ b/adversarial_attack_results.xlsx
@@ -570,28 +570,28 @@
         <v>0.99</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.152</v>
+        <v>-1.737</v>
       </c>
       <c r="F4" t="n">
-        <v>0.14</v>
+        <v>0.252</v>
       </c>
       <c r="G4" t="n">
-        <v>0.749</v>
+        <v>0.779</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="I4" t="n">
-        <v>0.963</v>
+        <v>0.967</v>
       </c>
       <c r="J4" t="n">
-        <v>0.843</v>
+        <v>0.863</v>
       </c>
       <c r="K4" t="n">
-        <v>0.963</v>
+        <v>0.967</v>
       </c>
       <c r="L4" t="n">
-        <v>0.843</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="5">
@@ -606,28 +606,28 @@
         <v>0.35</v>
       </c>
       <c r="E5" t="n">
-        <v>6.5</v>
+        <v>6.06</v>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>3.17</v>
       </c>
       <c r="G5" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="H5" t="n">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="J5" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="6">
@@ -639,31 +639,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>6.49</v>
+        <v>6.05</v>
       </c>
       <c r="F6" t="n">
-        <v>3.39</v>
+        <v>3.16</v>
       </c>
       <c r="G6" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="I6" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="K6" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="7">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>4.94</v>
       </c>
       <c r="E7" t="n">
-        <v>125.56</v>
+        <v>116.14</v>
       </c>
       <c r="F7" t="n">
-        <v>65.15000000000001</v>
+        <v>60.39</v>
       </c>
       <c r="G7" t="n">
-        <v>34.98</v>
+        <v>32.6</v>
       </c>
       <c r="H7" t="n">
-        <v>16.97</v>
+        <v>15.99</v>
       </c>
       <c r="I7" t="n">
-        <v>11.51</v>
+        <v>10.62</v>
       </c>
       <c r="J7" t="n">
-        <v>27.02</v>
+        <v>25.08</v>
       </c>
       <c r="K7" t="n">
-        <v>11.5</v>
+        <v>10.61</v>
       </c>
       <c r="L7" t="n">
-        <v>27.02</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="8">
@@ -718,28 +718,28 @@
         <v>0.99</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.594</v>
+        <v>-1.334</v>
       </c>
       <c r="F8" t="n">
-        <v>0.269</v>
+        <v>0.354</v>
       </c>
       <c r="G8" t="n">
-        <v>0.782</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.946</v>
+        <v>0.952</v>
       </c>
       <c r="I8" t="n">
-        <v>0.954</v>
+        <v>0.964</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="K8" t="n">
-        <v>0.954</v>
+        <v>0.964</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9">
@@ -751,31 +751,31 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="E9" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="F9" t="n">
-        <v>3.13</v>
+        <v>2.94</v>
       </c>
       <c r="G9" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="I9" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="J9" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="K9" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="10">
@@ -787,31 +787,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="E10" t="n">
-        <v>5.88</v>
+        <v>5.58</v>
       </c>
       <c r="F10" t="n">
-        <v>3.12</v>
+        <v>2.93</v>
       </c>
       <c r="G10" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="H10" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="I10" t="n">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="J10" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="K10" t="n">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="L10" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="11">
@@ -823,31 +823,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.43</v>
+        <v>4.34</v>
       </c>
       <c r="E11" t="n">
-        <v>114.42</v>
+        <v>108.46</v>
       </c>
       <c r="F11" t="n">
-        <v>59.76</v>
+        <v>56.01</v>
       </c>
       <c r="G11" t="n">
-        <v>32.19</v>
+        <v>30.11</v>
       </c>
       <c r="H11" t="n">
-        <v>15.57</v>
+        <v>14.65</v>
       </c>
       <c r="I11" t="n">
-        <v>13.47</v>
+        <v>12.15</v>
       </c>
       <c r="J11" t="n">
-        <v>29.32</v>
+        <v>26.72</v>
       </c>
       <c r="K11" t="n">
-        <v>13.48</v>
+        <v>12.15</v>
       </c>
       <c r="L11" t="n">
-        <v>29.34</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="12">
@@ -866,28 +866,28 @@
         <v>0.99</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.33</v>
+        <v>-1.274</v>
       </c>
       <c r="F12" t="n">
-        <v>0.346</v>
+        <v>0.373</v>
       </c>
       <c r="G12" t="n">
-        <v>0.805</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.95</v>
+        <v>0.953</v>
       </c>
       <c r="I12" t="n">
-        <v>0.958</v>
+        <v>0.966</v>
       </c>
       <c r="J12" t="n">
-        <v>0.831</v>
+        <v>0.861</v>
       </c>
       <c r="K12" t="n">
-        <v>0.958</v>
+        <v>0.966</v>
       </c>
       <c r="L12" t="n">
-        <v>0.831</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="13">
@@ -899,31 +899,31 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="E13" t="n">
-        <v>5.59</v>
+        <v>5.52</v>
       </c>
       <c r="F13" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H13" t="n">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="I13" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="J13" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="K13" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="14">
@@ -935,31 +935,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="E14" t="n">
-        <v>5.57</v>
+        <v>5.51</v>
       </c>
       <c r="F14" t="n">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="H14" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="J14" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="L14" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="15">
@@ -971,31 +971,31 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.58</v>
+        <v>4.32</v>
       </c>
       <c r="E15" t="n">
-        <v>108.99</v>
+        <v>105.03</v>
       </c>
       <c r="F15" t="n">
-        <v>56.22</v>
+        <v>54.66</v>
       </c>
       <c r="G15" t="n">
-        <v>30.35</v>
+        <v>29.47</v>
       </c>
       <c r="H15" t="n">
-        <v>14.89</v>
+        <v>14.37</v>
       </c>
       <c r="I15" t="n">
-        <v>13.12</v>
+        <v>10.8</v>
       </c>
       <c r="J15" t="n">
-        <v>27.91</v>
+        <v>24.69</v>
       </c>
       <c r="K15" t="n">
-        <v>13.12</v>
+        <v>10.8</v>
       </c>
       <c r="L15" t="n">
-        <v>27.91</v>
+        <v>24.69</v>
       </c>
     </row>
     <row r="16">
@@ -1014,28 +1014,28 @@
         <v>0.98</v>
       </c>
       <c r="E16" t="n">
-        <v>-8.192</v>
+        <v>-2.379</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.13</v>
+        <v>0.114</v>
       </c>
       <c r="G16" t="n">
-        <v>0.373</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0.839</v>
+        <v>0.899</v>
       </c>
       <c r="I16" t="n">
-        <v>0.913</v>
+        <v>0.923</v>
       </c>
       <c r="J16" t="n">
-        <v>0.656</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.887</v>
+        <v>0.891</v>
       </c>
       <c r="L16" t="n">
-        <v>0.539</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="17">
@@ -1047,31 +1047,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="E17" t="n">
-        <v>11.11</v>
+        <v>6.73</v>
       </c>
       <c r="F17" t="n">
-        <v>5.35</v>
+        <v>3.45</v>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>1.47</v>
+        <v>1.16</v>
       </c>
       <c r="I17" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="J17" t="n">
-        <v>2.15</v>
+        <v>2.41</v>
       </c>
       <c r="K17" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="L17" t="n">
-        <v>2.49</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="18">
@@ -1083,31 +1083,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="E18" t="n">
-        <v>10.72</v>
+        <v>6.26</v>
       </c>
       <c r="F18" t="n">
-        <v>5.18</v>
+        <v>3.24</v>
       </c>
       <c r="G18" t="n">
-        <v>2.81</v>
+        <v>1.94</v>
       </c>
       <c r="H18" t="n">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
       <c r="I18" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="J18" t="n">
-        <v>2.05</v>
+        <v>2.34</v>
       </c>
       <c r="K18" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="L18" t="n">
-        <v>2.41</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="19">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.19</v>
+        <v>7.8</v>
       </c>
       <c r="E19" t="n">
-        <v>208.13</v>
+        <v>119.37</v>
       </c>
       <c r="F19" t="n">
-        <v>100.1</v>
+        <v>60.98</v>
       </c>
       <c r="G19" t="n">
-        <v>53.99</v>
+        <v>36.56</v>
       </c>
       <c r="H19" t="n">
-        <v>26.44</v>
+        <v>20.66</v>
       </c>
       <c r="I19" t="n">
-        <v>14.94</v>
+        <v>17.27</v>
       </c>
       <c r="J19" t="n">
-        <v>36.25</v>
+        <v>44.37</v>
       </c>
       <c r="K19" t="n">
-        <v>19.09</v>
+        <v>20.87</v>
       </c>
       <c r="L19" t="n">
-        <v>43.67</v>
+        <v>47.69</v>
       </c>
     </row>
     <row r="20">
@@ -1163,31 +1163,31 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-1.24</v>
+        <v>0.95</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.238</v>
+        <v>0.174</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.238</v>
+        <v>0.635</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.238</v>
+        <v>0.831</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.238</v>
+        <v>0.912</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.238</v>
+        <v>0.912</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.238</v>
+        <v>0.835</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.238</v>
+        <v>0.912</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.238</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="21">
@@ -1199,31 +1199,31 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21514059.32</v>
+        <v>449.74</v>
       </c>
       <c r="E21" t="n">
-        <v>21514071.87</v>
+        <v>1795.6</v>
       </c>
       <c r="F21" t="n">
-        <v>21514065.6</v>
+        <v>1192.95</v>
       </c>
       <c r="G21" t="n">
-        <v>21514062.46</v>
+        <v>812.3</v>
       </c>
       <c r="H21" t="n">
-        <v>21514060.58</v>
+        <v>585.76</v>
       </c>
       <c r="I21" t="n">
-        <v>21514060.58</v>
+        <v>584.75</v>
       </c>
       <c r="J21" t="n">
-        <v>21514062.46</v>
+        <v>801.47</v>
       </c>
       <c r="K21" t="n">
-        <v>21514060.58</v>
+        <v>584.83</v>
       </c>
       <c r="L21" t="n">
-        <v>21514062.46</v>
+        <v>800.48</v>
       </c>
     </row>
     <row r="22">
@@ -1235,31 +1235,31 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17489545.1</v>
+        <v>321.11</v>
       </c>
       <c r="E22" t="n">
-        <v>17489653.42</v>
+        <v>1671.08</v>
       </c>
       <c r="F22" t="n">
-        <v>17489599.26</v>
+        <v>1081.7</v>
       </c>
       <c r="G22" t="n">
-        <v>17489572.2</v>
+        <v>710.75</v>
       </c>
       <c r="H22" t="n">
-        <v>17489555.94</v>
+        <v>477.62</v>
       </c>
       <c r="I22" t="n">
-        <v>17489555.94</v>
+        <v>473.22</v>
       </c>
       <c r="J22" t="n">
-        <v>17489572.2</v>
+        <v>684.65</v>
       </c>
       <c r="K22" t="n">
-        <v>17489555.94</v>
+        <v>473.33</v>
       </c>
       <c r="L22" t="n">
-        <v>17489572.2</v>
+        <v>683.92</v>
       </c>
     </row>
     <row r="23">
@@ -1271,31 +1271,31 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>68.81999999999999</v>
+        <v>17.21</v>
       </c>
       <c r="E23" t="n">
-        <v>68.81999999999999</v>
+        <v>129.43</v>
       </c>
       <c r="F23" t="n">
-        <v>68.81999999999999</v>
+        <v>79.73</v>
       </c>
       <c r="G23" t="n">
-        <v>68.81999999999999</v>
+        <v>48.67</v>
       </c>
       <c r="H23" t="n">
-        <v>68.81999999999999</v>
+        <v>29.64</v>
       </c>
       <c r="I23" t="n">
-        <v>68.81999999999999</v>
+        <v>29.02</v>
       </c>
       <c r="J23" t="n">
-        <v>68.81999999999999</v>
+        <v>44.42</v>
       </c>
       <c r="K23" t="n">
-        <v>68.81999999999999</v>
+        <v>29.04</v>
       </c>
       <c r="L23" t="n">
-        <v>68.81999999999999</v>
+        <v>44.59</v>
       </c>
     </row>
     <row r="24">
@@ -1311,31 +1311,31 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-1.05</v>
+        <v>0.95</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.045</v>
+        <v>-0.147</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.045</v>
+        <v>0.441</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.045</v>
+        <v>0.76</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.045</v>
+        <v>0.898</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.045</v>
+        <v>0.899</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.045</v>
+        <v>0.761</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.045</v>
+        <v>0.898</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.045</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="25">
@@ -1347,31 +1347,31 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20564383.78</v>
+        <v>433.64</v>
       </c>
       <c r="E25" t="n">
-        <v>20564383.78</v>
+        <v>2115.27</v>
       </c>
       <c r="F25" t="n">
-        <v>20564383.78</v>
+        <v>1477.42</v>
       </c>
       <c r="G25" t="n">
-        <v>20564383.78</v>
+        <v>968.36</v>
       </c>
       <c r="H25" t="n">
-        <v>20564383.78</v>
+        <v>629.55</v>
       </c>
       <c r="I25" t="n">
-        <v>20564383.78</v>
+        <v>628.99</v>
       </c>
       <c r="J25" t="n">
-        <v>20564383.78</v>
+        <v>966.2</v>
       </c>
       <c r="K25" t="n">
-        <v>20564383.78</v>
+        <v>629.4</v>
       </c>
       <c r="L25" t="n">
-        <v>20564383.78</v>
+        <v>966.33</v>
       </c>
     </row>
     <row r="26">
@@ -1383,31 +1383,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17156503.68</v>
+        <v>306.83</v>
       </c>
       <c r="E26" t="n">
-        <v>17156503.68</v>
+        <v>1839.13</v>
       </c>
       <c r="F26" t="n">
-        <v>17156503.68</v>
+        <v>1272.24</v>
       </c>
       <c r="G26" t="n">
-        <v>17156503.68</v>
+        <v>825.71</v>
       </c>
       <c r="H26" t="n">
-        <v>17156503.68</v>
+        <v>515.52</v>
       </c>
       <c r="I26" t="n">
-        <v>17156503.68</v>
+        <v>511.21</v>
       </c>
       <c r="J26" t="n">
-        <v>17156503.68</v>
+        <v>805.16</v>
       </c>
       <c r="K26" t="n">
-        <v>17156503.68</v>
+        <v>511.73</v>
       </c>
       <c r="L26" t="n">
-        <v>17156503.68</v>
+        <v>805.67</v>
       </c>
     </row>
     <row r="27">
@@ -1419,31 +1419,31 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>88.59999999999999</v>
+        <v>19.19</v>
       </c>
       <c r="E27" t="n">
-        <v>88.59999999999999</v>
+        <v>181.15</v>
       </c>
       <c r="F27" t="n">
-        <v>88.59999999999999</v>
+        <v>116.04</v>
       </c>
       <c r="G27" t="n">
-        <v>88.59999999999999</v>
+        <v>67.41</v>
       </c>
       <c r="H27" t="n">
-        <v>88.59999999999999</v>
+        <v>37.49</v>
       </c>
       <c r="I27" t="n">
-        <v>88.59999999999999</v>
+        <v>36.93</v>
       </c>
       <c r="J27" t="n">
-        <v>88.59999999999999</v>
+        <v>62.76</v>
       </c>
       <c r="K27" t="n">
-        <v>88.59999999999999</v>
+        <v>36.96</v>
       </c>
       <c r="L27" t="n">
-        <v>88.59999999999999</v>
+        <v>62.94</v>
       </c>
     </row>
     <row r="28">
@@ -1459,31 +1459,31 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.67</v>
+        <v>0.95</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.67</v>
+        <v>0.181</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.67</v>
+        <v>0.615</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.67</v>
+        <v>0.826</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.67</v>
+        <v>0.915</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.67</v>
+        <v>0.915</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.67</v>
+        <v>0.831</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.67</v>
+        <v>0.915</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.67</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="29">
@@ -1495,31 +1495,31 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>18581573.85</v>
+        <v>429.81</v>
       </c>
       <c r="E29" t="n">
-        <v>18581620.18</v>
+        <v>1787.95</v>
       </c>
       <c r="F29" t="n">
-        <v>18581597.01</v>
+        <v>1226.29</v>
       </c>
       <c r="G29" t="n">
-        <v>18581585.44</v>
+        <v>823.86</v>
       </c>
       <c r="H29" t="n">
-        <v>18581578.49</v>
+        <v>576.9400000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>18581578.49</v>
+        <v>575.66</v>
       </c>
       <c r="J29" t="n">
-        <v>18581585.44</v>
+        <v>813.0599999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>18581578.49</v>
+        <v>575.83</v>
       </c>
       <c r="L29" t="n">
-        <v>18581585.44</v>
+        <v>812.16</v>
       </c>
     </row>
     <row r="30">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15102004.6</v>
+        <v>305.38</v>
       </c>
       <c r="E30" t="n">
-        <v>15102234.32</v>
+        <v>1637.23</v>
       </c>
       <c r="F30" t="n">
-        <v>15102119.45</v>
+        <v>1106.04</v>
       </c>
       <c r="G30" t="n">
-        <v>15102062.04</v>
+        <v>723.97</v>
       </c>
       <c r="H30" t="n">
-        <v>15102027.59</v>
+        <v>474.39</v>
       </c>
       <c r="I30" t="n">
-        <v>15102027.59</v>
+        <v>469.45</v>
       </c>
       <c r="J30" t="n">
-        <v>15102062.04</v>
+        <v>697.62</v>
       </c>
       <c r="K30" t="n">
-        <v>15102027.59</v>
+        <v>469.69</v>
       </c>
       <c r="L30" t="n">
-        <v>15102062.04</v>
+        <v>696.92</v>
       </c>
     </row>
     <row r="31">
@@ -1567,31 +1567,31 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>71.20999999999999</v>
+        <v>15.65</v>
       </c>
       <c r="E31" t="n">
-        <v>71.22</v>
+        <v>123.28</v>
       </c>
       <c r="F31" t="n">
-        <v>71.20999999999999</v>
+        <v>81.14</v>
       </c>
       <c r="G31" t="n">
-        <v>71.20999999999999</v>
+        <v>49.49</v>
       </c>
       <c r="H31" t="n">
-        <v>71.20999999999999</v>
+        <v>29.14</v>
       </c>
       <c r="I31" t="n">
-        <v>71.20999999999999</v>
+        <v>28.42</v>
       </c>
       <c r="J31" t="n">
-        <v>71.20999999999999</v>
+        <v>45.47</v>
       </c>
       <c r="K31" t="n">
-        <v>71.20999999999999</v>
+        <v>28.46</v>
       </c>
       <c r="L31" t="n">
-        <v>71.20999999999999</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="32">
@@ -1610,28 +1610,28 @@
         <v>0.95</v>
       </c>
       <c r="E32" t="n">
-        <v>0.945</v>
+        <v>0.336</v>
       </c>
       <c r="F32" t="n">
-        <v>0.945</v>
+        <v>0.637</v>
       </c>
       <c r="G32" t="n">
-        <v>0.945</v>
+        <v>0.804</v>
       </c>
       <c r="H32" t="n">
-        <v>0.945</v>
+        <v>0.898</v>
       </c>
       <c r="I32" t="n">
-        <v>0.945</v>
+        <v>0.899</v>
       </c>
       <c r="J32" t="n">
-        <v>0.945</v>
+        <v>0.79</v>
       </c>
       <c r="K32" t="n">
-        <v>0.945</v>
+        <v>0.895</v>
       </c>
       <c r="L32" t="n">
-        <v>0.945</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="33">
@@ -1643,31 +1643,31 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3369596.07</v>
+        <v>448.97</v>
       </c>
       <c r="E33" t="n">
-        <v>3371923.88</v>
+        <v>1609.77</v>
       </c>
       <c r="F33" t="n">
-        <v>3370758</v>
+        <v>1190.17</v>
       </c>
       <c r="G33" t="n">
-        <v>3370176.57</v>
+        <v>874.36</v>
       </c>
       <c r="H33" t="n">
-        <v>3369827</v>
+        <v>631.58</v>
       </c>
       <c r="I33" t="n">
-        <v>3369830.07</v>
+        <v>626.65</v>
       </c>
       <c r="J33" t="n">
-        <v>3370186.96</v>
+        <v>904.74</v>
       </c>
       <c r="K33" t="n">
-        <v>3369831.15</v>
+        <v>640.99</v>
       </c>
       <c r="L33" t="n">
-        <v>3370189.29</v>
+        <v>927.6900000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1679,31 +1679,31 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2374839.89</v>
+        <v>325.54</v>
       </c>
       <c r="E34" t="n">
-        <v>2377838.15</v>
+        <v>1388.14</v>
       </c>
       <c r="F34" t="n">
-        <v>2376336.55</v>
+        <v>1049.14</v>
       </c>
       <c r="G34" t="n">
-        <v>2375587.63</v>
+        <v>771.21</v>
       </c>
       <c r="H34" t="n">
-        <v>2375137.2</v>
+        <v>533.99</v>
       </c>
       <c r="I34" t="n">
-        <v>2375140</v>
+        <v>525.7</v>
       </c>
       <c r="J34" t="n">
-        <v>2375597.98</v>
+        <v>801.8200000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>2375141.33</v>
+        <v>542.75</v>
       </c>
       <c r="L34" t="n">
-        <v>2375600.84</v>
+        <v>827.78</v>
       </c>
     </row>
     <row r="35">
@@ -1715,31 +1715,31 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>18.65</v>
+        <v>19.32</v>
       </c>
       <c r="E35" t="n">
-        <v>18.67</v>
+        <v>73.56999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>18.66</v>
+        <v>62.34</v>
       </c>
       <c r="G35" t="n">
-        <v>18.65</v>
+        <v>48.05</v>
       </c>
       <c r="H35" t="n">
-        <v>18.65</v>
+        <v>33.21</v>
       </c>
       <c r="I35" t="n">
-        <v>18.65</v>
+        <v>32.65</v>
       </c>
       <c r="J35" t="n">
-        <v>18.65</v>
+        <v>49.4</v>
       </c>
       <c r="K35" t="n">
-        <v>18.65</v>
+        <v>33.95</v>
       </c>
       <c r="L35" t="n">
-        <v>18.65</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="36">
@@ -1762,28 +1762,28 @@
         <v>0.95</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.095</v>
+        <v>-0.052</v>
       </c>
       <c r="F36" t="n">
-        <v>0.616</v>
+        <v>0.618</v>
       </c>
       <c r="G36" t="n">
-        <v>0.834</v>
+        <v>0.833</v>
       </c>
       <c r="H36" t="n">
         <v>0.917</v>
       </c>
       <c r="I36" t="n">
-        <v>0.921</v>
+        <v>0.92</v>
       </c>
       <c r="J36" t="n">
-        <v>0.866</v>
+        <v>0.852</v>
       </c>
       <c r="K36" t="n">
-        <v>0.921</v>
+        <v>0.92</v>
       </c>
       <c r="L36" t="n">
-        <v>0.866</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="37">
@@ -1795,31 +1795,31 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>19.64</v>
+        <v>19.57</v>
       </c>
       <c r="E37" t="n">
-        <v>93.13</v>
+        <v>91.29000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>55.2</v>
+        <v>55.02</v>
       </c>
       <c r="G37" t="n">
-        <v>36.24</v>
+        <v>36.36</v>
       </c>
       <c r="H37" t="n">
-        <v>25.6</v>
+        <v>25.66</v>
       </c>
       <c r="I37" t="n">
-        <v>24.95</v>
+        <v>25.22</v>
       </c>
       <c r="J37" t="n">
-        <v>32.63</v>
+        <v>34.26</v>
       </c>
       <c r="K37" t="n">
-        <v>25</v>
+        <v>25.24</v>
       </c>
       <c r="L37" t="n">
-        <v>32.64</v>
+        <v>34.26</v>
       </c>
     </row>
     <row r="38">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10.85</v>
+        <v>10.58</v>
       </c>
       <c r="E38" t="n">
-        <v>86.98</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>50.52</v>
+        <v>49.28</v>
       </c>
       <c r="G38" t="n">
-        <v>31.18</v>
+        <v>31.01</v>
       </c>
       <c r="H38" t="n">
-        <v>19.13</v>
+        <v>19.15</v>
       </c>
       <c r="I38" t="n">
-        <v>17.01</v>
+        <v>17.83</v>
       </c>
       <c r="J38" t="n">
-        <v>24.49</v>
+        <v>27.41</v>
       </c>
       <c r="K38" t="n">
-        <v>17.18</v>
+        <v>17.87</v>
       </c>
       <c r="L38" t="n">
-        <v>24.49</v>
+        <v>27.42</v>
       </c>
     </row>
     <row r="39">
@@ -1867,31 +1867,31 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>35.76</v>
+        <v>26.98</v>
       </c>
       <c r="E39" t="n">
-        <v>312.63</v>
+        <v>240.88</v>
       </c>
       <c r="F39" t="n">
-        <v>178.75</v>
+        <v>143.83</v>
       </c>
       <c r="G39" t="n">
-        <v>109.59</v>
+        <v>92</v>
       </c>
       <c r="H39" t="n">
-        <v>66.27</v>
+        <v>56.71</v>
       </c>
       <c r="I39" t="n">
-        <v>55.91</v>
+        <v>47.74</v>
       </c>
       <c r="J39" t="n">
-        <v>77.01000000000001</v>
+        <v>68.11</v>
       </c>
       <c r="K39" t="n">
-        <v>57.3</v>
+        <v>48.11</v>
       </c>
       <c r="L39" t="n">
-        <v>77.13</v>
+        <v>68.16</v>
       </c>
     </row>
     <row r="40">
@@ -1910,28 +1910,28 @@
         <v>0.95</v>
       </c>
       <c r="E40" t="n">
-        <v>0.015</v>
+        <v>-0.155</v>
       </c>
       <c r="F40" t="n">
-        <v>0.628</v>
+        <v>0.595</v>
       </c>
       <c r="G40" t="n">
-        <v>0.831</v>
+        <v>0.827</v>
       </c>
       <c r="H40" t="n">
-        <v>0.912</v>
+        <v>0.915</v>
       </c>
       <c r="I40" t="n">
-        <v>0.914</v>
+        <v>0.92</v>
       </c>
       <c r="J40" t="n">
-        <v>0.843</v>
+        <v>0.858</v>
       </c>
       <c r="K40" t="n">
-        <v>0.914</v>
+        <v>0.92</v>
       </c>
       <c r="L40" t="n">
-        <v>0.843</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="41">
@@ -1943,31 +1943,31 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>20.35</v>
+        <v>19.67</v>
       </c>
       <c r="E41" t="n">
-        <v>88.34999999999999</v>
+        <v>95.66</v>
       </c>
       <c r="F41" t="n">
-        <v>54.26</v>
+        <v>56.68</v>
       </c>
       <c r="G41" t="n">
-        <v>36.59</v>
+        <v>37</v>
       </c>
       <c r="H41" t="n">
-        <v>26.36</v>
+        <v>25.88</v>
       </c>
       <c r="I41" t="n">
-        <v>26.11</v>
+        <v>25.19</v>
       </c>
       <c r="J41" t="n">
-        <v>35.29</v>
+        <v>33.51</v>
       </c>
       <c r="K41" t="n">
-        <v>26.11</v>
+        <v>25.24</v>
       </c>
       <c r="L41" t="n">
-        <v>35.29</v>
+        <v>33.54</v>
       </c>
     </row>
     <row r="42">
@@ -1979,31 +1979,31 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>11.73</v>
+        <v>10.77</v>
       </c>
       <c r="E42" t="n">
-        <v>78.17</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>47.97</v>
+        <v>52.16</v>
       </c>
       <c r="G42" t="n">
-        <v>31.01</v>
+        <v>32.09</v>
       </c>
       <c r="H42" t="n">
-        <v>19.87</v>
+        <v>19.5</v>
       </c>
       <c r="I42" t="n">
-        <v>19.03</v>
+        <v>17.37</v>
       </c>
       <c r="J42" t="n">
-        <v>28.62</v>
+        <v>25.83</v>
       </c>
       <c r="K42" t="n">
-        <v>19.05</v>
+        <v>17.52</v>
       </c>
       <c r="L42" t="n">
-        <v>28.63</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="43">
@@ -2015,31 +2015,31 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>28.05</v>
+        <v>33.26</v>
       </c>
       <c r="E43" t="n">
-        <v>209.67</v>
+        <v>318.95</v>
       </c>
       <c r="F43" t="n">
-        <v>130.22</v>
+        <v>182.15</v>
       </c>
       <c r="G43" t="n">
-        <v>86.78</v>
+        <v>110.98</v>
       </c>
       <c r="H43" t="n">
-        <v>55.84</v>
+        <v>65.91</v>
       </c>
       <c r="I43" t="n">
-        <v>50</v>
+        <v>53.35</v>
       </c>
       <c r="J43" t="n">
-        <v>70.68000000000001</v>
+        <v>75.39</v>
       </c>
       <c r="K43" t="n">
-        <v>50.16</v>
+        <v>54.76</v>
       </c>
       <c r="L43" t="n">
-        <v>70.72</v>
+        <v>76.33</v>
       </c>
     </row>
     <row r="44">
@@ -2058,28 +2058,28 @@
         <v>0.95</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.138</v>
+        <v>-0.107</v>
       </c>
       <c r="F44" t="n">
-        <v>0.598</v>
+        <v>0.611</v>
       </c>
       <c r="G44" t="n">
-        <v>0.829</v>
+        <v>0.833</v>
       </c>
       <c r="H44" t="n">
         <v>0.917</v>
       </c>
       <c r="I44" t="n">
-        <v>0.92</v>
+        <v>0.921</v>
       </c>
       <c r="J44" t="n">
-        <v>0.855</v>
+        <v>0.866</v>
       </c>
       <c r="K44" t="n">
-        <v>0.92</v>
+        <v>0.921</v>
       </c>
       <c r="L44" t="n">
-        <v>0.854</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="45">
@@ -2091,31 +2091,31 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>19.47</v>
+        <v>19.69</v>
       </c>
       <c r="E45" t="n">
-        <v>94.98</v>
+        <v>93.67</v>
       </c>
       <c r="F45" t="n">
-        <v>56.45</v>
+        <v>55.49</v>
       </c>
       <c r="G45" t="n">
-        <v>36.83</v>
+        <v>36.38</v>
       </c>
       <c r="H45" t="n">
-        <v>25.7</v>
+        <v>25.67</v>
       </c>
       <c r="I45" t="n">
-        <v>25.1</v>
+        <v>25.02</v>
       </c>
       <c r="J45" t="n">
-        <v>33.95</v>
+        <v>32.61</v>
       </c>
       <c r="K45" t="n">
-        <v>25.13</v>
+        <v>25.03</v>
       </c>
       <c r="L45" t="n">
-        <v>33.98</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="46">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10.55</v>
+        <v>10.79</v>
       </c>
       <c r="E46" t="n">
-        <v>88.45</v>
+        <v>87.66</v>
       </c>
       <c r="F46" t="n">
-        <v>51.75</v>
+        <v>50.84</v>
       </c>
       <c r="G46" t="n">
-        <v>31.89</v>
+        <v>31.33</v>
       </c>
       <c r="H46" t="n">
-        <v>19.33</v>
+        <v>19.16</v>
       </c>
       <c r="I46" t="n">
-        <v>17.52</v>
+        <v>17.08</v>
       </c>
       <c r="J46" t="n">
-        <v>26.75</v>
+        <v>24.48</v>
       </c>
       <c r="K46" t="n">
-        <v>17.62</v>
+        <v>17.12</v>
       </c>
       <c r="L46" t="n">
-        <v>26.81</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="47">
@@ -2163,31 +2163,31 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>30.08</v>
+        <v>34.46</v>
       </c>
       <c r="E47" t="n">
-        <v>304.53</v>
+        <v>314.26</v>
       </c>
       <c r="F47" t="n">
-        <v>174.32</v>
+        <v>178.14</v>
       </c>
       <c r="G47" t="n">
-        <v>106.22</v>
+        <v>108.49</v>
       </c>
       <c r="H47" t="n">
-        <v>62.53</v>
+        <v>65.13</v>
       </c>
       <c r="I47" t="n">
-        <v>50.91</v>
+        <v>54.27</v>
       </c>
       <c r="J47" t="n">
-        <v>74.37</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>51.88</v>
+        <v>54.71</v>
       </c>
       <c r="L47" t="n">
-        <v>75.2</v>
+        <v>73.20999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -2203,31 +2203,31 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.973</v>
+        <v>-0.909</v>
       </c>
       <c r="F48" t="n">
-        <v>0.274</v>
+        <v>0.318</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.724</v>
       </c>
       <c r="H48" t="n">
-        <v>0.859</v>
+        <v>0.879</v>
       </c>
       <c r="I48" t="n">
-        <v>0.866</v>
+        <v>0.885</v>
       </c>
       <c r="J48" t="n">
-        <v>0.728</v>
+        <v>0.759</v>
       </c>
       <c r="K48" t="n">
-        <v>0.86</v>
+        <v>0.881</v>
       </c>
       <c r="L48" t="n">
-        <v>0.721</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="49">
@@ -2239,31 +2239,31 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>22.96</v>
+        <v>21.56</v>
       </c>
       <c r="E49" t="n">
-        <v>125.03</v>
+        <v>123.01</v>
       </c>
       <c r="F49" t="n">
-        <v>75.84999999999999</v>
+        <v>73.51000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>49.54</v>
+        <v>46.78</v>
       </c>
       <c r="H49" t="n">
-        <v>33.4</v>
+        <v>30.96</v>
       </c>
       <c r="I49" t="n">
-        <v>32.53</v>
+        <v>30.17</v>
       </c>
       <c r="J49" t="n">
-        <v>46.4</v>
+        <v>43.7</v>
       </c>
       <c r="K49" t="n">
-        <v>33.32</v>
+        <v>30.72</v>
       </c>
       <c r="L49" t="n">
-        <v>47.01</v>
+        <v>44.03</v>
       </c>
     </row>
     <row r="50">
@@ -2275,31 +2275,31 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14.19</v>
+        <v>12.59</v>
       </c>
       <c r="E50" t="n">
-        <v>119.46</v>
+        <v>116</v>
       </c>
       <c r="F50" t="n">
-        <v>71.8</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>45.23</v>
+        <v>42.28</v>
       </c>
       <c r="H50" t="n">
-        <v>27.65</v>
+        <v>24.98</v>
       </c>
       <c r="I50" t="n">
-        <v>25.86</v>
+        <v>23.31</v>
       </c>
       <c r="J50" t="n">
-        <v>39.64</v>
+        <v>36.91</v>
       </c>
       <c r="K50" t="n">
-        <v>26.83</v>
+        <v>23.98</v>
       </c>
       <c r="L50" t="n">
-        <v>40.29</v>
+        <v>37.18</v>
       </c>
     </row>
     <row r="51">
@@ -2311,31 +2311,31 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>51.83</v>
+        <v>46.36</v>
       </c>
       <c r="E51" t="n">
-        <v>454.69</v>
+        <v>449.96</v>
       </c>
       <c r="F51" t="n">
-        <v>262.4</v>
+        <v>253.91</v>
       </c>
       <c r="G51" t="n">
-        <v>162.65</v>
+        <v>152.31</v>
       </c>
       <c r="H51" t="n">
-        <v>98.22</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="I51" t="n">
-        <v>94.09</v>
+        <v>85.39</v>
       </c>
       <c r="J51" t="n">
-        <v>149.73</v>
+        <v>139.22</v>
       </c>
       <c r="K51" t="n">
-        <v>97.48</v>
+        <v>86.98</v>
       </c>
       <c r="L51" t="n">
-        <v>151.48</v>
+        <v>137.73</v>
       </c>
     </row>
     <row r="52">
@@ -2358,28 +2358,28 @@
         <v>0.99</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4</v>
+        <v>0.216</v>
       </c>
       <c r="F52" t="n">
-        <v>0.789</v>
+        <v>0.724</v>
       </c>
       <c r="G52" t="n">
-        <v>0.923</v>
+        <v>0.901</v>
       </c>
       <c r="H52" t="n">
-        <v>0.974</v>
+        <v>0.968</v>
       </c>
       <c r="I52" t="n">
-        <v>0.974</v>
+        <v>0.968</v>
       </c>
       <c r="J52" t="n">
-        <v>0.93</v>
+        <v>0.904</v>
       </c>
       <c r="K52" t="n">
-        <v>0.974</v>
+        <v>0.968</v>
       </c>
       <c r="L52" t="n">
-        <v>0.929</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="53">
@@ -2391,31 +2391,31 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>12.14</v>
+        <v>12.86</v>
       </c>
       <c r="E53" t="n">
-        <v>106.7</v>
+        <v>121.95</v>
       </c>
       <c r="F53" t="n">
-        <v>63.28</v>
+        <v>72.39</v>
       </c>
       <c r="G53" t="n">
-        <v>38.24</v>
+        <v>43.31</v>
       </c>
       <c r="H53" t="n">
-        <v>22.31</v>
+        <v>24.79</v>
       </c>
       <c r="I53" t="n">
-        <v>22.01</v>
+        <v>24.67</v>
       </c>
       <c r="J53" t="n">
-        <v>36.45</v>
+        <v>42.69</v>
       </c>
       <c r="K53" t="n">
-        <v>22.02</v>
+        <v>24.7</v>
       </c>
       <c r="L53" t="n">
-        <v>36.82</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="54">
@@ -2427,31 +2427,31 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>7.73</v>
+        <v>8.16</v>
       </c>
       <c r="E54" t="n">
-        <v>85.98999999999999</v>
+        <v>98.27</v>
       </c>
       <c r="F54" t="n">
-        <v>50.37</v>
+        <v>56.45</v>
       </c>
       <c r="G54" t="n">
-        <v>30.04</v>
+        <v>33.14</v>
       </c>
       <c r="H54" t="n">
-        <v>16.91</v>
+        <v>18.38</v>
       </c>
       <c r="I54" t="n">
-        <v>16.39</v>
+        <v>18.21</v>
       </c>
       <c r="J54" t="n">
-        <v>27.89</v>
+        <v>32.54</v>
       </c>
       <c r="K54" t="n">
-        <v>16.42</v>
+        <v>18.24</v>
       </c>
       <c r="L54" t="n">
-        <v>28.46</v>
+        <v>32.95</v>
       </c>
     </row>
     <row r="55">
@@ -2463,31 +2463,31 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1061115.95</v>
+        <v>895897.9</v>
       </c>
       <c r="E55" t="n">
-        <v>13058970.6</v>
+        <v>18428798.67</v>
       </c>
       <c r="F55" t="n">
-        <v>6821912.72</v>
+        <v>8460726.6</v>
       </c>
       <c r="G55" t="n">
-        <v>3906913.11</v>
+        <v>4382258.21</v>
       </c>
       <c r="H55" t="n">
-        <v>2209248.8</v>
+        <v>2228543.01</v>
       </c>
       <c r="I55" t="n">
-        <v>2213129.57</v>
+        <v>2307727.36</v>
       </c>
       <c r="J55" t="n">
-        <v>4051216.72</v>
+        <v>4793282.59</v>
       </c>
       <c r="K55" t="n">
-        <v>2213039.44</v>
+        <v>2308097.6</v>
       </c>
       <c r="L55" t="n">
-        <v>4053430</v>
+        <v>4794611.59</v>
       </c>
     </row>
     <row r="56">
@@ -2506,28 +2506,28 @@
         <v>0.99</v>
       </c>
       <c r="E56" t="n">
-        <v>0.494</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.801</v>
+        <v>0.83</v>
       </c>
       <c r="G56" t="n">
-        <v>0.923</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0.972</v>
+        <v>0.978</v>
       </c>
       <c r="I56" t="n">
-        <v>0.973</v>
+        <v>0.978</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>0.973</v>
+        <v>0.978</v>
       </c>
       <c r="L56" t="n">
-        <v>0.931</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="57">
@@ -2539,31 +2539,31 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12.89</v>
+        <v>10.7</v>
       </c>
       <c r="E57" t="n">
-        <v>97.94</v>
+        <v>91.33</v>
       </c>
       <c r="F57" t="n">
-        <v>61.44</v>
+        <v>56.82</v>
       </c>
       <c r="G57" t="n">
-        <v>38.32</v>
+        <v>35.21</v>
       </c>
       <c r="H57" t="n">
-        <v>22.94</v>
+        <v>20.51</v>
       </c>
       <c r="I57" t="n">
-        <v>22.46</v>
+        <v>20.25</v>
       </c>
       <c r="J57" t="n">
-        <v>35.19</v>
+        <v>34.5</v>
       </c>
       <c r="K57" t="n">
-        <v>22.51</v>
+        <v>20.29</v>
       </c>
       <c r="L57" t="n">
-        <v>36.16</v>
+        <v>34.41</v>
       </c>
     </row>
     <row r="58">
@@ -2575,31 +2575,31 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8.17</v>
+        <v>6.12</v>
       </c>
       <c r="E58" t="n">
-        <v>78.40000000000001</v>
+        <v>74.44</v>
       </c>
       <c r="F58" t="n">
-        <v>48.95</v>
+        <v>45.61</v>
       </c>
       <c r="G58" t="n">
-        <v>30.12</v>
+        <v>27.58</v>
       </c>
       <c r="H58" t="n">
-        <v>17.33</v>
+        <v>15.19</v>
       </c>
       <c r="I58" t="n">
-        <v>16.57</v>
+        <v>15.05</v>
       </c>
       <c r="J58" t="n">
-        <v>26.57</v>
+        <v>28.08</v>
       </c>
       <c r="K58" t="n">
-        <v>16.62</v>
+        <v>15.11</v>
       </c>
       <c r="L58" t="n">
-        <v>27.66</v>
+        <v>27.94</v>
       </c>
     </row>
     <row r="59">
@@ -2611,31 +2611,31 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1035317.99</v>
+        <v>714818.63</v>
       </c>
       <c r="E59" t="n">
-        <v>12821577.94</v>
+        <v>13832860.41</v>
       </c>
       <c r="F59" t="n">
-        <v>7267831.74</v>
+        <v>7439727.14</v>
       </c>
       <c r="G59" t="n">
-        <v>4185927.82</v>
+        <v>4137324.57</v>
       </c>
       <c r="H59" t="n">
-        <v>2291356.79</v>
+        <v>2105847.4</v>
       </c>
       <c r="I59" t="n">
-        <v>2377302.49</v>
+        <v>2579359.78</v>
       </c>
       <c r="J59" t="n">
-        <v>4418994.29</v>
+        <v>6136413.29</v>
       </c>
       <c r="K59" t="n">
-        <v>2377612.19</v>
+        <v>2579907.4</v>
       </c>
       <c r="L59" t="n">
-        <v>4539552.84</v>
+        <v>6136540.62</v>
       </c>
     </row>
     <row r="60">
@@ -2654,28 +2654,28 @@
         <v>0.99</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.115</v>
+        <v>0.169</v>
       </c>
       <c r="F60" t="n">
-        <v>0.58</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>0.848</v>
+        <v>0.883</v>
       </c>
       <c r="H60" t="n">
-        <v>0.957</v>
+        <v>0.963</v>
       </c>
       <c r="I60" t="n">
-        <v>0.961</v>
+        <v>0.966</v>
       </c>
       <c r="J60" t="n">
-        <v>0.857</v>
+        <v>0.896</v>
       </c>
       <c r="K60" t="n">
-        <v>0.961</v>
+        <v>0.966</v>
       </c>
       <c r="L60" t="n">
-        <v>0.851</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="61">
@@ -2687,31 +2687,31 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>11.14</v>
+        <v>13.06</v>
       </c>
       <c r="E61" t="n">
-        <v>145.47</v>
+        <v>125.56</v>
       </c>
       <c r="F61" t="n">
-        <v>89.25</v>
+        <v>77.72</v>
       </c>
       <c r="G61" t="n">
-        <v>53.67</v>
+        <v>47.15</v>
       </c>
       <c r="H61" t="n">
-        <v>28.42</v>
+        <v>26.52</v>
       </c>
       <c r="I61" t="n">
-        <v>27.09</v>
+        <v>25.44</v>
       </c>
       <c r="J61" t="n">
-        <v>52.13</v>
+        <v>44.36</v>
       </c>
       <c r="K61" t="n">
-        <v>27.35</v>
+        <v>25.58</v>
       </c>
       <c r="L61" t="n">
-        <v>53.13</v>
+        <v>45.04</v>
       </c>
     </row>
     <row r="62">
@@ -2723,31 +2723,31 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>7.32</v>
+        <v>8.94</v>
       </c>
       <c r="E62" t="n">
-        <v>136.91</v>
+        <v>115.69</v>
       </c>
       <c r="F62" t="n">
-        <v>81.02</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>47.39</v>
+        <v>42.34</v>
       </c>
       <c r="H62" t="n">
-        <v>24.28</v>
+        <v>22.99</v>
       </c>
       <c r="I62" t="n">
-        <v>22.68</v>
+        <v>21.57</v>
       </c>
       <c r="J62" t="n">
-        <v>45.07</v>
+        <v>39.5</v>
       </c>
       <c r="K62" t="n">
-        <v>22.96</v>
+        <v>21.75</v>
       </c>
       <c r="L62" t="n">
-        <v>45.94</v>
+        <v>40.05</v>
       </c>
     </row>
     <row r="63">
@@ -2759,31 +2759,31 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1700049.06</v>
+        <v>1550265.83</v>
       </c>
       <c r="E63" t="n">
-        <v>51914928.2</v>
+        <v>38006421.65</v>
       </c>
       <c r="F63" t="n">
-        <v>28424047.14</v>
+        <v>22815918.83</v>
       </c>
       <c r="G63" t="n">
-        <v>15636840.75</v>
+        <v>13121065.89</v>
       </c>
       <c r="H63" t="n">
-        <v>7507747.71</v>
+        <v>6472723.55</v>
       </c>
       <c r="I63" t="n">
-        <v>6674196.31</v>
+        <v>5801117.55</v>
       </c>
       <c r="J63" t="n">
-        <v>14140845.8</v>
+        <v>11956808.31</v>
       </c>
       <c r="K63" t="n">
-        <v>7294599.03</v>
+        <v>6209132.92</v>
       </c>
       <c r="L63" t="n">
-        <v>15141185.29</v>
+        <v>12718413.35</v>
       </c>
     </row>
     <row r="64">
@@ -2802,28 +2802,28 @@
         <v>0.99</v>
       </c>
       <c r="E64" t="n">
-        <v>0.533</v>
+        <v>0.647</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="G64" t="n">
-        <v>0.917</v>
+        <v>0.925</v>
       </c>
       <c r="H64" t="n">
-        <v>0.971</v>
+        <v>0.972</v>
       </c>
       <c r="I64" t="n">
-        <v>0.971</v>
+        <v>0.972</v>
       </c>
       <c r="J64" t="n">
-        <v>0.923</v>
+        <v>0.926</v>
       </c>
       <c r="K64" t="n">
-        <v>0.971</v>
+        <v>0.972</v>
       </c>
       <c r="L64" t="n">
-        <v>0.91</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="65">
@@ -2835,31 +2835,31 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>12.26</v>
+        <v>12.23</v>
       </c>
       <c r="E65" t="n">
-        <v>94.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="F65" t="n">
-        <v>60.15</v>
+        <v>55.09</v>
       </c>
       <c r="G65" t="n">
-        <v>39.71</v>
+        <v>37.83</v>
       </c>
       <c r="H65" t="n">
-        <v>23.54</v>
+        <v>23.25</v>
       </c>
       <c r="I65" t="n">
-        <v>23.26</v>
+        <v>22.86</v>
       </c>
       <c r="J65" t="n">
-        <v>38.29</v>
+        <v>37.46</v>
       </c>
       <c r="K65" t="n">
-        <v>23.65</v>
+        <v>23.21</v>
       </c>
       <c r="L65" t="n">
-        <v>41.28</v>
+        <v>39.87</v>
       </c>
     </row>
     <row r="66">
@@ -2871,31 +2871,31 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>7.2</v>
+        <v>7.11</v>
       </c>
       <c r="E66" t="n">
-        <v>75.58</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>48.19</v>
+        <v>42.92</v>
       </c>
       <c r="G66" t="n">
-        <v>31.45</v>
+        <v>28.7</v>
       </c>
       <c r="H66" t="n">
-        <v>17.89</v>
+        <v>16.93</v>
       </c>
       <c r="I66" t="n">
-        <v>17.65</v>
+        <v>16.44</v>
       </c>
       <c r="J66" t="n">
-        <v>31.76</v>
+        <v>28.05</v>
       </c>
       <c r="K66" t="n">
-        <v>18.07</v>
+        <v>16.78</v>
       </c>
       <c r="L66" t="n">
-        <v>34.46</v>
+        <v>30.65</v>
       </c>
     </row>
     <row r="67">
@@ -2907,31 +2907,31 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>437501.49</v>
+        <v>575486.54</v>
       </c>
       <c r="E67" t="n">
-        <v>16246393.14</v>
+        <v>12133302.75</v>
       </c>
       <c r="F67" t="n">
-        <v>8453956.140000001</v>
+        <v>6893406.84</v>
       </c>
       <c r="G67" t="n">
-        <v>4437562.77</v>
+        <v>3423599.95</v>
       </c>
       <c r="H67" t="n">
-        <v>2083534.79</v>
+        <v>1685249.81</v>
       </c>
       <c r="I67" t="n">
-        <v>2888733.42</v>
+        <v>1496755.25</v>
       </c>
       <c r="J67" t="n">
-        <v>7880294.93</v>
+        <v>3669001.06</v>
       </c>
       <c r="K67" t="n">
-        <v>2927538.15</v>
+        <v>1547499.96</v>
       </c>
       <c r="L67" t="n">
-        <v>9010345.449999999</v>
+        <v>3751907.36</v>
       </c>
     </row>
   </sheetData>
